--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Oak</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>End date</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Hawthorn</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>Beech</t>
   </si>
 </sst>
 </file>
@@ -89,10 +104,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,19 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -412,25 +428,32 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -444,35 +467,53 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
         <v>42233</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>42255</v>
       </c>
       <c r="C3">
@@ -488,35 +529,240 @@
         <v>0.73</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.03</v>
-      </c>
-      <c r="H3">
-        <v>0.54</v>
-      </c>
-      <c r="I3">
-        <v>0.7</v>
       </c>
       <c r="J3">
         <v>0.54</v>
       </c>
       <c r="K3">
+        <v>0.7</v>
+      </c>
+      <c r="L3">
+        <v>0.54</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1.05</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>0.2</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>2.08</v>
       </c>
-      <c r="N3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>42255</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42275</v>
+      </c>
+      <c r="C4">
+        <v>1.6</v>
+      </c>
+      <c r="D4">
+        <v>1.57</v>
+      </c>
+      <c r="E4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.69</v>
+      </c>
+      <c r="K4">
+        <v>0.61</v>
+      </c>
+      <c r="L4">
+        <v>0.35</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O4">
+        <v>1.97</v>
+      </c>
+      <c r="P4">
+        <v>0.18</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.89</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>42275</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42292</v>
+      </c>
+      <c r="C5">
+        <v>5.25</v>
+      </c>
+      <c r="D5">
+        <v>5.12</v>
+      </c>
+      <c r="E5">
+        <v>4.84</v>
+      </c>
+      <c r="F5">
+        <v>2.93</v>
+      </c>
+      <c r="G5">
+        <v>0.44</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.44</v>
+      </c>
+      <c r="J5">
+        <v>1.77</v>
+      </c>
+      <c r="K5">
+        <v>3.2</v>
+      </c>
+      <c r="L5">
+        <v>5.36</v>
+      </c>
+      <c r="M5">
+        <v>0.27</v>
+      </c>
+      <c r="N5">
+        <v>0.26</v>
+      </c>
+      <c r="O5">
+        <v>6.14</v>
+      </c>
+      <c r="P5">
+        <v>0.73</v>
+      </c>
+      <c r="Q5">
+        <v>0.26</v>
+      </c>
+      <c r="R5">
+        <v>4.55</v>
+      </c>
+      <c r="S5">
+        <v>0.3</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42306</v>
+      </c>
+      <c r="C6">
+        <v>11.73</v>
+      </c>
+      <c r="D6">
+        <v>12.47</v>
+      </c>
+      <c r="E6">
+        <v>12.14</v>
+      </c>
+      <c r="F6">
+        <v>2.44</v>
+      </c>
+      <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>8.35</v>
+      </c>
+      <c r="K6">
+        <v>11.34</v>
+      </c>
+      <c r="L6">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="M6">
+        <v>2.23</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10.67</v>
+      </c>
+      <c r="P6">
+        <v>1.84</v>
+      </c>
+      <c r="Q6">
+        <v>2.08</v>
+      </c>
+      <c r="R6">
+        <v>12.03</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="4">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Oak</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Beech</t>
+  </si>
+  <si>
+    <t>Blackthorn</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,9 +416,10 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -442,18 +446,19 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -488,28 +493,31 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
       <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
       <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>42233</v>
       </c>
@@ -553,25 +561,28 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1.05</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.2</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>2.08</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>42255</v>
       </c>
@@ -612,28 +623,31 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.97</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.18</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.89</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>42275</v>
       </c>
@@ -674,28 +688,31 @@
         <v>0.27</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0.26</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6.14</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.73</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.26</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4.55</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.3</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>42292</v>
       </c>
@@ -739,30 +756,98 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>10.67</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.84</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.08</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12.03</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>42306</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42313</v>
+      </c>
+      <c r="C7">
+        <v>12.8</v>
+      </c>
+      <c r="D7">
+        <v>21.47</v>
+      </c>
+      <c r="E7">
+        <v>17.86</v>
+      </c>
+      <c r="F7">
+        <v>2.56</v>
+      </c>
+      <c r="G7">
+        <v>1.62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.88</v>
+      </c>
+      <c r="J7">
+        <v>13.53</v>
+      </c>
+      <c r="K7">
+        <v>9.67</v>
+      </c>
+      <c r="L7">
+        <v>0.42</v>
+      </c>
+      <c r="M7">
+        <v>0.34</v>
+      </c>
+      <c r="N7">
+        <v>0.41</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>10.27</v>
+      </c>
+      <c r="Q7">
+        <v>0.76</v>
+      </c>
+      <c r="R7">
+        <v>1.17</v>
+      </c>
+      <c r="S7">
+        <v>14.91</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Oak</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Hazel</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Litter bag 1 (g)</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>Blackthorn</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Scans</t>
+  </si>
+  <si>
+    <t>Around litter trap 1</t>
+  </si>
+  <si>
+    <t>Around trap 7 and 5/10</t>
   </si>
 </sst>
 </file>
@@ -85,12 +94,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,10 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,107 +450,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="16" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:27">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
@@ -514,10 +568,28 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>42233</v>
       </c>
@@ -528,61 +600,79 @@
         <v>1.74</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.72</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.73</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.03</v>
-      </c>
-      <c r="J3">
-        <v>0.54</v>
-      </c>
-      <c r="K3">
-        <v>0.7</v>
       </c>
       <c r="L3">
         <v>0.54</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>1.05</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>0.2</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>2.08</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>0.1</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>42255</v>
       </c>
@@ -593,61 +683,79 @@
         <v>1.6</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1.57</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.18</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0.69</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.61</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.35</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>1.97</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>0.18</v>
       </c>
-      <c r="R4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0.5</v>
       </c>
-      <c r="S4">
+      <c r="X4">
         <v>0.89</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>42275</v>
       </c>
@@ -658,61 +766,79 @@
         <v>5.25</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>5.12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4.84</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2.93</v>
-      </c>
-      <c r="G5">
-        <v>0.44</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>0.44</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.44</v>
+      </c>
+      <c r="L5">
         <v>1.77</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>3.2</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>5.36</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.27</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.26</v>
-      </c>
       <c r="P5">
-        <v>6.14</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0.26</v>
       </c>
       <c r="S5">
+        <v>6.14</v>
+      </c>
+      <c r="T5">
+        <v>0.73</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.26</v>
+      </c>
+      <c r="X5">
         <v>4.55</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <v>0.3</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>42292</v>
       </c>
@@ -723,61 +849,79 @@
         <v>11.73</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>12.47</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>12.14</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>2.44</v>
-      </c>
-      <c r="G6">
-        <v>0.4</v>
-      </c>
-      <c r="H6">
-        <v>1.02</v>
       </c>
       <c r="I6">
         <v>0.4</v>
       </c>
       <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>0.4</v>
+      </c>
+      <c r="L6">
         <v>8.35</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>11.34</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>4.7300000000000004</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>2.23</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>10.67</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>1.84</v>
       </c>
-      <c r="R6">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>2.08</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <v>12.03</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>42306</v>
       </c>
@@ -788,66 +932,477 @@
         <v>12.8</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>21.47</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>17.86</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>2.56</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.62</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.88</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>13.53</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>9.67</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.42</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.34</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.41</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>10.27</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>0.76</v>
       </c>
-      <c r="R7">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>1.17</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <v>14.91</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C8">
+        <v>15.64</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>20.63</v>
+      </c>
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+      <c r="G8">
+        <v>22.16</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2.14</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.23</v>
+      </c>
+      <c r="L8">
+        <v>18.34</v>
+      </c>
+      <c r="M8">
+        <v>3.53</v>
+      </c>
+      <c r="N8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.32</v>
+      </c>
+      <c r="P8">
+        <v>0.13</v>
+      </c>
+      <c r="Q8">
+        <v>0.17</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9.89</v>
+      </c>
+      <c r="T8">
+        <v>1.31</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="X8">
+        <v>22.35</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42324</v>
+      </c>
+      <c r="C9">
+        <v>15.9</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>19.27</v>
+      </c>
+      <c r="F9">
+        <v>0.23</v>
+      </c>
+      <c r="G9">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="H9">
+        <v>1.58</v>
+      </c>
+      <c r="I9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.11</v>
+      </c>
+      <c r="L9">
+        <v>16.3</v>
+      </c>
+      <c r="M9">
+        <v>1.22</v>
+      </c>
+      <c r="N9">
+        <v>0.08</v>
+      </c>
+      <c r="O9">
+        <v>0.09</v>
+      </c>
+      <c r="P9">
+        <v>0.01</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.46</v>
+      </c>
+      <c r="T9">
+        <v>1.2</v>
+      </c>
+      <c r="U9">
+        <v>0.05</v>
+      </c>
+      <c r="V9">
+        <v>0.03</v>
+      </c>
+      <c r="W9">
+        <v>0.47</v>
+      </c>
+      <c r="X9">
+        <v>17.93</v>
+      </c>
+      <c r="Y9">
+        <v>0.25</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>42324</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42331</v>
+      </c>
+      <c r="C10">
+        <v>11.23</v>
+      </c>
+      <c r="D10">
+        <v>0.31</v>
+      </c>
+      <c r="E10">
+        <v>13.42</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.06</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.67</v>
+      </c>
+      <c r="L10">
+        <v>5.93</v>
+      </c>
+      <c r="M10">
+        <v>0.73</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.17</v>
+      </c>
+      <c r="R10">
+        <v>0.09</v>
+      </c>
+      <c r="S10">
+        <v>15.99</v>
+      </c>
+      <c r="T10">
+        <v>1.27</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.3</v>
+      </c>
+      <c r="X10">
+        <v>10.38</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.22</v>
+      </c>
+      <c r="AA10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42338</v>
+      </c>
+      <c r="C11">
+        <v>5.35</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>6.27</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3.45</v>
+      </c>
+      <c r="H11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.41</v>
+      </c>
+      <c r="L11">
+        <v>4.41</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.25</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>2.91</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42338</v>
+      </c>
+      <c r="C19">
+        <v>13.27</v>
+      </c>
+      <c r="D19">
+        <v>6.21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="J1:O1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -138,24 +138,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
@@ -498,13 +500,13 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
       <c r="X1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1336,15 +1338,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42346</v>
+      </c>
+      <c r="C12">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E12">
+        <v>11.29</v>
+      </c>
+      <c r="G12">
+        <v>11.31</v>
+      </c>
+      <c r="H12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L12">
+        <v>11.53</v>
+      </c>
+      <c r="M12">
+        <v>0.45</v>
+      </c>
+      <c r="O12">
+        <v>0.04</v>
+      </c>
+      <c r="S12">
+        <v>11.06</v>
+      </c>
+      <c r="X12">
+        <v>13.13</v>
+      </c>
+    </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -1353,14 +1390,14 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
@@ -1392,17 +1429,81 @@
         <v>6.21</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42346</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>12.26</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="L1:R1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ewan/projects/ah_data/litter_traps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Oak</t>
   </si>
@@ -79,13 +92,34 @@
   </si>
   <si>
     <t>Around trap 7 and 5/10</t>
+  </si>
+  <si>
+    <t>weight (g)</t>
+  </si>
+  <si>
+    <t>area (cm^2)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Leaf mass area calibration (m2/g)</t>
+  </si>
+  <si>
+    <t>Leaf mass area (m2/g)</t>
+  </si>
+  <si>
+    <t>Total LAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -156,14 +192,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,12 +250,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -242,14 +282,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -276,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,70 +493,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="16" max="17" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="16" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="5" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="4" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42233</v>
       </c>
@@ -674,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42255</v>
       </c>
@@ -757,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42275</v>
       </c>
@@ -840,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42292</v>
       </c>
@@ -923,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42306</v>
       </c>
@@ -1006,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42313</v>
       </c>
@@ -1089,7 +1135,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42317</v>
       </c>
@@ -1172,7 +1218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42324</v>
       </c>
@@ -1255,7 +1301,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42331</v>
       </c>
@@ -1338,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42338</v>
       </c>
@@ -1348,159 +1394,564 @@
       <c r="C12">
         <v>9.0500000000000007</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>11.29</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <v>11.31</v>
       </c>
       <c r="H12">
         <v>0.28999999999999998</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <v>11.53</v>
       </c>
       <c r="M12">
         <v>0.45</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12">
         <v>0.04</v>
       </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
       <c r="S12">
         <v>11.06</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
       <c r="X12">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="2" t="s">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C3:C12)</f>
+        <v>90.29</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:J13" si="0">SUM(D3:D12)</f>
+        <v>0.31</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>112.60999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>100.45</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>14.42</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4.7299999999999995</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="1">SUM(K3:K12)</f>
+        <v>3.17</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="2">SUM(L3:L12)</f>
+        <v>81.389999999999986</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="3">SUM(M3:M12)</f>
+        <v>31.45</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="4">SUM(N3:N12)</f>
+        <v>12.06</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13" si="5">SUM(O3:O12)</f>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:Q13" si="6">SUM(P3:P12)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0.34</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13" si="7">SUM(R3:R12)</f>
+        <v>0.64</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13" si="8">SUM(S3:S12)</f>
+        <v>83.75</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13" si="9">SUM(T3:T12)</f>
+        <v>7.99</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="10">SUM(U3:U12)</f>
+        <v>0.05</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13" si="11">SUM(V3:V12)</f>
+        <v>0.03</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:X13" si="12">SUM(W3:W12)</f>
+        <v>9.6400000000000023</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="12"/>
+        <v>101.15999999999998</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13" si="13">SUM(Y3:Y12)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="14">SUM(Z3:Z12)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13" si="15">SUM(AA3:AA12)</f>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <f>C13*A26</f>
+        <v>1.5547306771429832</v>
+      </c>
+      <c r="D14">
+        <f>D13*B26</f>
+        <v>1.1737896894216443E-2</v>
+      </c>
+      <c r="E14">
+        <f>E13*A26</f>
+        <v>1.9390654729546053</v>
+      </c>
+      <c r="F14">
+        <f>F13*B26</f>
+        <v>2.8776779482595154E-2</v>
+      </c>
+      <c r="G14">
+        <f>G13*A26</f>
+        <v>1.729678774161177</v>
+      </c>
+      <c r="H14">
+        <f>H13*B26</f>
+        <v>0.54600152649871325</v>
+      </c>
+      <c r="I14">
+        <f>I13*C26</f>
+        <v>8.5546780000000003E-2</v>
+      </c>
+      <c r="J14">
+        <f>J13*D26</f>
+        <v>2.4366780000000001E-2</v>
+      </c>
+      <c r="K14">
+        <f>K13*E26</f>
+        <v>6.3640920000000004E-2</v>
+      </c>
+      <c r="L14">
+        <f>L13*A26</f>
+        <v>1.4014788992431872</v>
+      </c>
+      <c r="M14">
+        <f>M13*B26</f>
+        <v>1.1908285720100231</v>
+      </c>
+      <c r="N14">
+        <f>N13*D26</f>
+        <v>0.28810134000000004</v>
+      </c>
+      <c r="O14">
+        <f>O13*F26</f>
+        <v>5.9722319999999988E-2</v>
+      </c>
+      <c r="P14">
+        <f>P13*F26</f>
+        <v>9.7759749999999992E-3</v>
+      </c>
+      <c r="Q14">
+        <f>Q13*G26</f>
+        <v>6.8258400000000006E-3</v>
+      </c>
+      <c r="R14">
+        <f>R13*E26</f>
+        <v>1.284864E-2</v>
+      </c>
+      <c r="S14">
+        <f>S13*A26</f>
+        <v>1.4421164493379648</v>
+      </c>
+      <c r="T14">
+        <f>T13*B26</f>
+        <v>0.30253482640254642</v>
+      </c>
+      <c r="U14">
+        <f>U13*F26</f>
+        <v>8.8872499999999993E-4</v>
+      </c>
+      <c r="V14">
+        <f>V13*D26</f>
+        <v>7.1666999999999998E-4</v>
+      </c>
+      <c r="W14">
+        <f>W13*H26</f>
+        <v>4.2223200000000009E-2</v>
+      </c>
+      <c r="X14">
+        <f>X13*A26</f>
+        <v>1.741904477791385</v>
+      </c>
+      <c r="Y14">
+        <f>Y13*B26</f>
+        <v>2.0825300941351755E-2</v>
+      </c>
+      <c r="Z14">
+        <f>Z13*E26</f>
+        <v>6.4243199999999999E-3</v>
+      </c>
+      <c r="AA14">
+        <f>AA13*C26</f>
+        <v>1.6819980000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C14:D14)</f>
+        <v>1.5664685740371995</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E14:F14)</f>
+        <v>1.9678422524372003</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G14:K14)</f>
+        <v>2.4492347806598902</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L14:R14)</f>
+        <v>2.9695815862532107</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S14:W14)</f>
+        <v>1.7884798707405114</v>
+      </c>
+      <c r="X15">
+        <f>SUM(X14:AA14)</f>
+        <v>1.7859740787327367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>42331</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>42338</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>13.27</v>
       </c>
-      <c r="D19">
+      <c r="D20">
+        <v>2256.38</v>
+      </c>
+      <c r="E20">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="F20">
+        <v>2308.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>42338</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B21" s="3">
         <v>42346</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <v>12.26</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H21" s="2">
+        <v>2050.52</v>
+      </c>
+      <c r="I21" s="2">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="J21" s="2">
+        <v>2039.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <f>$D$20*0.0001/$C$20</f>
+        <v>1.7003617181612665E-2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <f>F20*0.0001/E20</f>
+        <v>3.7178260869565216E-2</v>
+      </c>
+      <c r="G22">
+        <f>H21*0.0001/G21</f>
+        <v>1.6725285481239804E-2</v>
+      </c>
+      <c r="I22">
+        <f>J21*0.0001/I21</f>
+        <v>3.8127289719626173E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>AVERAGE(C22,G22,0.017929)</f>
+        <v>1.721930088761749E-2</v>
+      </c>
+      <c r="B26" s="2">
+        <f>AVERAGE(E22,I22, 0.038287)</f>
+        <v>3.7864183529730464E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.8086000000000001E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.3889000000000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.0076E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.7774499999999999E-2</v>
+      </c>
+      <c r="G26">
+        <v>2.0076E-2</v>
+      </c>
+      <c r="H26">
+        <f>43.8*0.0001</f>
+        <v>4.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="L1:R1"/>
@@ -1511,24 +1962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Oak</t>
   </si>
@@ -37,27 +37,9 @@
     <t xml:space="preserve">Oak </t>
   </si>
   <si>
-    <t>Litter bag 3 (g)</t>
-  </si>
-  <si>
     <t>Hazel</t>
   </si>
   <si>
-    <t>Litter bag 1 (g)</t>
-  </si>
-  <si>
-    <t>Litter bag 2 (g)</t>
-  </si>
-  <si>
-    <t>Litter bag 4 (g)</t>
-  </si>
-  <si>
-    <t>Litter bag 5/10 (g)</t>
-  </si>
-  <si>
-    <t>Litter bag 7 (g)</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -113,6 +95,27 @@
   </si>
   <si>
     <t>Total LAI</t>
+  </si>
+  <si>
+    <t>Litter bag 7 (g), Point 325</t>
+  </si>
+  <si>
+    <t>Litter bag 5/10 (g),  Point 010</t>
+  </si>
+  <si>
+    <t>Litter bag 4 (g), Point 281</t>
+  </si>
+  <si>
+    <t>Litter bag 3 (g), Point 373</t>
+  </si>
+  <si>
+    <t>Litter bag 2 (g), Point 144</t>
+  </si>
+  <si>
+    <t>Litter bag 1 (g), Point 227</t>
+  </si>
+  <si>
+    <t>Area of litter trap (m2)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -193,6 +196,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +501,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,34 +515,34 @@
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="16" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="8" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -547,14 +551,14 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -565,76 +569,76 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1469,7 +1473,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f>SUM(C3:C12)</f>
@@ -1574,7 +1578,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f>C13*A26</f>
@@ -1679,36 +1683,36 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <f>SUM(C14:D14)</f>
-        <v>1.5664685740371995</v>
+        <f>SUM(C14:D14)/K24</f>
+        <v>4.7206818351425861</v>
       </c>
       <c r="E15">
-        <f>SUM(E14:F14)</f>
-        <v>1.9678422524372003</v>
+        <f>SUM(E14:F14)/K24</f>
+        <v>5.9302544139552982</v>
       </c>
       <c r="G15">
-        <f>SUM(G14:K14)</f>
-        <v>2.4492347806598902</v>
+        <f>SUM(G14:K14)/K24</f>
+        <v>7.3809703754618772</v>
       </c>
       <c r="L15">
-        <f>SUM(L14:R14)</f>
-        <v>2.9695815862532107</v>
+        <f>SUM(L14:R14)/K24</f>
+        <v>8.9490782544524503</v>
       </c>
       <c r="S15">
-        <f>SUM(S14:W14)</f>
-        <v>1.7884798707405114</v>
+        <f>SUM(S14:W14)/K24</f>
+        <v>5.389731130426366</v>
       </c>
       <c r="X15">
-        <f>SUM(X14:AA14)</f>
-        <v>1.7859740787327367</v>
+        <f>SUM(X14:AA14)/K24</f>
+        <v>5.3821797201971391</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1720,71 +1724,71 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42331</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>2308.77</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42338</v>
       </c>
@@ -1828,9 +1832,9 @@
         <v>2039.81</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <f>$D$20*0.0001/$C$20</f>
@@ -1850,15 +1854,15 @@
         <v>3.8127289719626173E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1868,35 +1872,41 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24">
+        <f>3318.31*0.0001</f>
+        <v>0.33183099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>AVERAGE(C22,G22,0.017929)</f>
         <v>1.721930088761749E-2</v>
@@ -1925,19 +1935,19 @@
         <v>4.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -103,19 +103,19 @@
     <t>Litter bag 5/10 (g),  Point 010</t>
   </si>
   <si>
-    <t>Litter bag 4 (g), Point 281</t>
-  </si>
-  <si>
     <t>Litter bag 3 (g), Point 373</t>
   </si>
   <si>
     <t>Litter bag 2 (g), Point 144</t>
   </si>
   <si>
-    <t>Litter bag 1 (g), Point 227</t>
-  </si>
-  <si>
     <t>Area of litter trap (m2)</t>
+  </si>
+  <si>
+    <t>Litter bag 1 (g), Point 281</t>
+  </si>
+  <si>
+    <t>Litter bag 4 (g), Point 227</t>
   </si>
 </sst>
 </file>
@@ -180,10 +180,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -195,8 +197,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,43 +526,43 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="6" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1476,11 +1476,11 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <f>SUM(C3:C12)</f>
+        <f t="shared" ref="C13:AA13" si="0">SUM(C3:C12)</f>
         <v>90.29</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:J13" si="0">SUM(D3:D12)</f>
+        <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
       <c r="E13">
@@ -1508,71 +1508,71 @@
         <v>1.02</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13" si="1">SUM(K3:K12)</f>
+        <f t="shared" si="0"/>
         <v>3.17</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13" si="2">SUM(L3:L12)</f>
+        <f t="shared" si="0"/>
         <v>81.389999999999986</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13" si="3">SUM(M3:M12)</f>
+        <f t="shared" si="0"/>
         <v>31.45</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13" si="4">SUM(N3:N12)</f>
+        <f t="shared" si="0"/>
         <v>12.06</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13" si="5">SUM(O3:O12)</f>
+        <f t="shared" si="0"/>
         <v>3.3599999999999994</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:Q13" si="6">SUM(P3:P12)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13" si="7">SUM(R3:R12)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13" si="8">SUM(S3:S12)</f>
+        <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13" si="9">SUM(T3:T12)</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13" si="10">SUM(U3:U12)</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13" si="11">SUM(V3:V12)</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:X13" si="12">SUM(W3:W12)</f>
+        <f t="shared" si="0"/>
         <v>9.6400000000000023</v>
       </c>
       <c r="X13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>101.15999999999998</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13" si="13">SUM(Y3:Y12)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13" si="14">SUM(Z3:Z12)</f>
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13" si="15">SUM(AA3:AA12)</f>
+        <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
@@ -1581,104 +1581,104 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <f>C13*A26</f>
-        <v>1.5547306771429832</v>
+        <f>C13*A26/K24</f>
+        <v>4.6853087178201651</v>
       </c>
       <c r="D14">
-        <f>D13*B26</f>
-        <v>1.1737896894216443E-2</v>
+        <f>D13*B26/K24</f>
+        <v>3.5373117322421488E-2</v>
       </c>
       <c r="E14">
-        <f>E13*A26</f>
-        <v>1.9390654729546053</v>
+        <f>E13*A26/K24</f>
+        <v>5.8435332231003292</v>
       </c>
       <c r="F14">
-        <f>F13*B26</f>
-        <v>2.8776779482595154E-2</v>
+        <f>F13*B26/K24</f>
+        <v>8.6721190854968808E-2</v>
       </c>
       <c r="G14">
-        <f>G13*A26</f>
-        <v>1.729678774161177</v>
+        <f>G13*A26/K24</f>
+        <v>5.2125291915498462</v>
       </c>
       <c r="H14">
-        <f>H13*B26</f>
-        <v>0.54600152649871325</v>
+        <f>H13*B26/K24</f>
+        <v>1.6454204896429607</v>
       </c>
       <c r="I14">
-        <f>I13*C26</f>
-        <v>8.5546780000000003E-2</v>
+        <f>I13*C26/K24</f>
+        <v>0.2578022547622133</v>
       </c>
       <c r="J14">
-        <f>J13*D26</f>
-        <v>2.4366780000000001E-2</v>
+        <f>J13*D26/K24</f>
+        <v>7.343129484587034E-2</v>
       </c>
       <c r="K14">
-        <f>K13*E26</f>
-        <v>6.3640920000000004E-2</v>
+        <f>K13*E26/K24</f>
+        <v>0.19178714466098709</v>
       </c>
       <c r="L14">
-        <f>L13*A26</f>
-        <v>1.4014788992431872</v>
+        <f>L13*A26/K24</f>
+        <v>4.2234718855175899</v>
       </c>
       <c r="M14">
-        <f>M13*B26</f>
-        <v>1.1908285720100231</v>
+        <f>M13*B26/K24</f>
+        <v>3.5886598057746961</v>
       </c>
       <c r="N14">
-        <f>N13*D26</f>
-        <v>0.28810134000000004</v>
+        <f>N13*D26/K24</f>
+        <v>0.8682170743541141</v>
       </c>
       <c r="O14">
-        <f>O13*F26</f>
-        <v>5.9722319999999988E-2</v>
+        <f>O13*F26/K24</f>
+        <v>0.17997812139311875</v>
       </c>
       <c r="P14">
-        <f>P13*F26</f>
-        <v>9.7759749999999992E-3</v>
+        <f>P13*F26/K24</f>
+        <v>2.9460704394706941E-2</v>
       </c>
       <c r="Q14">
-        <f>Q13*G26</f>
-        <v>6.8258400000000006E-3</v>
+        <f>Q13*G26/K24</f>
+        <v>2.0570230026730477E-2</v>
       </c>
       <c r="R14">
-        <f>R13*E26</f>
-        <v>1.284864E-2</v>
+        <f>R13*E26/K24</f>
+        <v>3.8720432991492658E-2</v>
       </c>
       <c r="S14">
-        <f>S13*A26</f>
-        <v>1.4421164493379648</v>
+        <f>S13*A26/K24</f>
+        <v>4.3459364837461383</v>
       </c>
       <c r="T14">
-        <f>T13*B26</f>
-        <v>0.30253482640254642</v>
+        <f>T13*B26/K24</f>
+        <v>0.91171357227789573</v>
       </c>
       <c r="U14">
-        <f>U13*F26</f>
-        <v>8.8872499999999993E-4</v>
+        <f>U13*F26/K24</f>
+        <v>2.6782458540642678E-3</v>
       </c>
       <c r="V14">
-        <f>V13*D26</f>
-        <v>7.1666999999999998E-4</v>
+        <f>V13*D26/K24</f>
+        <v>2.1597439660550099E-3</v>
       </c>
       <c r="W14">
-        <f>W13*H26</f>
-        <v>4.2223200000000009E-2</v>
+        <f>W13*H26/K24</f>
+        <v>0.12724308458221206</v>
       </c>
       <c r="X14">
-        <f>X13*A26</f>
-        <v>1.741904477791385</v>
+        <f>X13*A26/K24</f>
+        <v>5.2493723545762307</v>
       </c>
       <c r="Y14">
-        <f>Y13*B26</f>
-        <v>2.0825300941351755E-2</v>
+        <f>Y13*B26/K24</f>
+        <v>6.2758756539780053E-2</v>
       </c>
       <c r="Z14">
-        <f>Z13*E26</f>
-        <v>6.4243199999999999E-3</v>
+        <f>Z13*E26/K24</f>
+        <v>1.9360216495746329E-2</v>
       </c>
       <c r="AA14">
-        <f>AA13*C26</f>
-        <v>1.6819980000000002E-2</v>
+        <f>AA13*C26/K24</f>
+        <v>5.0688392585382325E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1686,43 +1686,43 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <f>SUM(C14:D14)/K24</f>
-        <v>4.7206818351425861</v>
+        <f>SUM(C14:D14)</f>
+        <v>4.720681835142587</v>
       </c>
       <c r="E15">
-        <f>SUM(E14:F14)/K24</f>
+        <f>SUM(E14:F14)</f>
         <v>5.9302544139552982</v>
       </c>
       <c r="G15">
-        <f>SUM(G14:K14)/K24</f>
+        <f>SUM(G14:K14)</f>
         <v>7.3809703754618772</v>
       </c>
       <c r="L15">
-        <f>SUM(L14:R14)/K24</f>
-        <v>8.9490782544524503</v>
+        <f>SUM(L14:R14)</f>
+        <v>8.9490782544524485</v>
       </c>
       <c r="S15">
-        <f>SUM(S14:W14)/K24</f>
+        <f>SUM(S14:W14)</f>
         <v>5.389731130426366</v>
       </c>
       <c r="X15">
-        <f>SUM(X14:AA14)/K24</f>
+        <f>SUM(X14:AA14)</f>
         <v>5.3821797201971391</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1731,18 +1731,18 @@
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1861,19 +1861,19 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10" t="s">
-        <v>28</v>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K24">
         <f>3318.31*0.0001</f>

--- a/litter_traps/litter_dry_weights.xlsx
+++ b/litter_traps/litter_dry_weights.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15000"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="16000" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -88,12 +89,6 @@
     <t>LAI</t>
   </si>
   <si>
-    <t>Leaf mass area calibration (m2/g)</t>
-  </si>
-  <si>
-    <t>Leaf mass area (m2/g)</t>
-  </si>
-  <si>
     <t>Total LAI</t>
   </si>
   <si>
@@ -112,10 +107,16 @@
     <t>Area of litter trap (m2)</t>
   </si>
   <si>
-    <t>Litter bag 1 (g), Point 281</t>
-  </si>
-  <si>
-    <t>Litter bag 4 (g), Point 227</t>
+    <t>Leaf mass area (g/m2)</t>
+  </si>
+  <si>
+    <t>Leaf mass area calibration (g/m2)</t>
+  </si>
+  <si>
+    <t>Litter bag 4 (g), Point 281</t>
+  </si>
+  <si>
+    <t>Litter bag 1 (g), Point 227</t>
   </si>
 </sst>
 </file>
@@ -501,7 +502,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,22 +528,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
@@ -551,14 +552,14 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
@@ -1581,133 +1582,133 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <f>C13*A26/K24</f>
-        <v>4.6853087178201651</v>
+        <f>C13/(A26*K24)</f>
+        <v>4.3176188225365042</v>
       </c>
       <c r="D14">
-        <f>D13*B26/K24</f>
-        <v>3.5373117322421488E-2</v>
+        <f>D13/(B26*K24)</f>
+        <v>2.9827921030121069E-2</v>
       </c>
       <c r="E14">
-        <f>E13*A26/K24</f>
-        <v>5.8435332231003292</v>
+        <f>E13/(A26*K24)</f>
+        <v>5.3849491151382844</v>
       </c>
       <c r="F14">
-        <f>F13*B26/K24</f>
-        <v>8.6721190854968808E-2</v>
+        <f>F13/B26/K24</f>
+        <v>7.3126516073845196E-2</v>
       </c>
       <c r="G14">
-        <f>G13*A26/K24</f>
-        <v>5.2125291915498462</v>
+        <f>G13/A26/K24</f>
+        <v>4.8034645112835515</v>
       </c>
       <c r="H14">
-        <f>H13*B26/K24</f>
-        <v>1.6454204896429607</v>
+        <f>H13/B26/K24</f>
+        <v>1.3874794234011156</v>
       </c>
       <c r="I14">
-        <f>I13*C26/K24</f>
-        <v>0.2578022547622133</v>
+        <f>I13/C26/K24</f>
+        <v>0.25780871544862244</v>
       </c>
       <c r="J14">
-        <f>J13*D26/K24</f>
-        <v>7.343129484587034E-2</v>
+        <f>J13/D26/K24</f>
+        <v>4.9626313518631969E-2</v>
       </c>
       <c r="K14">
-        <f>K13*E26/K24</f>
-        <v>0.19178714466098709</v>
+        <f>K13/E26/K24</f>
+        <v>0.19178991410734675</v>
       </c>
       <c r="L14">
-        <f>L13*A26/K24</f>
-        <v>4.2234718855175899</v>
+        <f>L13/A26/K24</f>
+        <v>3.892025650307299</v>
       </c>
       <c r="M14">
-        <f>M13*B26/K24</f>
-        <v>3.5886598057746961</v>
+        <f>M13/B26/K24</f>
+        <v>3.0260906980558313</v>
       </c>
       <c r="N14">
-        <f>N13*D26/K24</f>
-        <v>0.8682170743541141</v>
+        <f>N13/D26/K24</f>
+        <v>0.58675817748500159</v>
       </c>
       <c r="O14">
-        <f>O13*F26/K24</f>
-        <v>0.17997812139311875</v>
+        <f>O13/F26/K24</f>
+        <v>0.17969185878518457</v>
       </c>
       <c r="P14">
-        <f>P13*F26/K24</f>
-        <v>2.9460704394706941E-2</v>
+        <f>P13/F26/K24</f>
+        <v>2.941384593209867E-2</v>
       </c>
       <c r="Q14">
-        <f>Q13*G26/K24</f>
-        <v>2.0570230026730477E-2</v>
+        <f>Q13/G26/K24</f>
+        <v>2.1525587250308571E-2</v>
       </c>
       <c r="R14">
-        <f>R13*E26/K24</f>
-        <v>3.8720432991492658E-2</v>
+        <f>R13/E26/K24</f>
+        <v>3.8720992122618911E-2</v>
       </c>
       <c r="S14">
-        <f>S13*A26/K24</f>
-        <v>4.3459364837461383</v>
+        <f>S13/A26/K24</f>
+        <v>4.0048795701343698</v>
       </c>
       <c r="T14">
-        <f>T13*B26/K24</f>
-        <v>0.91171357227789573</v>
+        <f>T13/B26/K24</f>
+        <v>0.76879060977634639</v>
       </c>
       <c r="U14">
-        <f>U13*F26/K24</f>
-        <v>2.6782458540642678E-3</v>
+        <f>U13/F26/K24</f>
+        <v>2.6739859938271515E-3</v>
       </c>
       <c r="V14">
-        <f>V13*D26/K24</f>
-        <v>2.1597439660550099E-3</v>
+        <f>V13/D26/K24</f>
+        <v>1.4595974564303518E-3</v>
       </c>
       <c r="W14">
-        <f>W13*H26/K24</f>
+        <f>W13/H26/K24</f>
         <v>0.12724308458221206</v>
       </c>
       <c r="X14">
-        <f>X13*A26/K24</f>
-        <v>5.2493723545762307</v>
+        <f>X13/A26/K24</f>
+        <v>4.8374163261467791</v>
       </c>
       <c r="Y14">
-        <f>Y13*B26/K24</f>
-        <v>6.2758756539780053E-2</v>
+        <f>Y13/B26/K24</f>
+        <v>5.2920505053440613E-2</v>
       </c>
       <c r="Z14">
-        <f>Z13*E26/K24</f>
-        <v>1.9360216495746329E-2</v>
+        <f>Z13/E26/K24</f>
+        <v>1.9360496061309455E-2</v>
       </c>
       <c r="AA14">
-        <f>AA13*C26/K24</f>
-        <v>5.0688392585382325E-2</v>
+        <f>AA13/C26/K24</f>
+        <v>5.0689662868333804E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <f>SUM(C14:D14)</f>
-        <v>4.720681835142587</v>
+        <v>4.3474467435666249</v>
       </c>
       <c r="E15">
         <f>SUM(E14:F14)</f>
-        <v>5.9302544139552982</v>
+        <v>5.4580756312121297</v>
       </c>
       <c r="G15">
         <f>SUM(G14:K14)</f>
-        <v>7.3809703754618772</v>
+        <v>6.6901688777592696</v>
       </c>
       <c r="L15">
         <f>SUM(L14:R14)</f>
-        <v>8.9490782544524485</v>
+        <v>7.7742268099383418</v>
       </c>
       <c r="S15">
         <f>SUM(S14:W14)</f>
-        <v>5.389731130426366</v>
+        <v>4.9050468479431863</v>
       </c>
       <c r="X15">
         <f>SUM(X14:AA14)</f>
-        <v>5.3821797201971391</v>
+        <v>4.9603869901298623</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -1834,24 +1835,24 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f>$D$20*0.0001/$C$20</f>
-        <v>1.7003617181612665E-2</v>
+        <f>$C$20/($D$20*0.0001)</f>
+        <v>58.811015874985586</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <f>F20*0.0001/E20</f>
-        <v>3.7178260869565216E-2</v>
+        <f>E20/(F20*0.0001)</f>
+        <v>26.897438896035553</v>
       </c>
       <c r="G22">
-        <f>H21*0.0001/G21</f>
-        <v>1.6725285481239804E-2</v>
+        <f>G21/(H21*0.0001)</f>
+        <v>59.78971187796266</v>
       </c>
       <c r="I22">
-        <f>J21*0.0001/I21</f>
-        <v>3.8127289719626173E-2</v>
+        <f>I21/(J21*0.0001)</f>
+        <v>26.227932993759222</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1862,7 +1863,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1873,7 +1874,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K24">
         <f>3318.31*0.0001</f>
@@ -1908,43 +1909,55 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>AVERAGE(C22,G22,0.017929)</f>
-        <v>1.721930088761749E-2</v>
+        <f>63.02</f>
+        <v>63.02</v>
       </c>
       <c r="B26" s="2">
-        <f>AVERAGE(E22,I22, 0.038287)</f>
-        <v>3.7864183529730464E-2</v>
+        <v>31.32</v>
       </c>
       <c r="C26" s="2">
-        <v>1.8086000000000001E-2</v>
+        <v>55.29</v>
       </c>
       <c r="D26" s="2">
-        <v>2.3889000000000001E-2</v>
+        <v>61.94</v>
       </c>
       <c r="E26" s="2">
-        <v>2.0076E-2</v>
+        <v>49.81</v>
       </c>
       <c r="F26" s="2">
-        <v>1.7774499999999999E-2</v>
+        <v>56.35</v>
       </c>
       <c r="G26">
-        <v>2.0076E-2</v>
+        <v>47.6</v>
       </c>
       <c r="H26">
-        <f>43.8*0.0001</f>
-        <v>4.3800000000000002E-3</v>
+        <f>1/(43.8*0.0001)</f>
+        <v>228.31050228310502</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
+      <c r="A27">
+        <f>AVERAGE(C22,G22,55.8)</f>
+        <v>58.133575917649409</v>
+      </c>
+      <c r="B27" s="2">
+        <f>AVERAGE(E22,I22, 26.1)</f>
+        <v>26.408457296598261</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>41.86</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2">
+        <v>31.32</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>61.94</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1977,7 +1990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1993,4 +2006,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>